--- a/src/vlinder/data/template.xlsx
+++ b/src/vlinder/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdam007/PycharmProjects/vork-trbs/trbs/src/vlinder/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F13DF-81A0-2A4B-8601-4FA346DE506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391DC73-C70D-904E-8950-0B556BB7AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="760" windowWidth="27600" windowHeight="18800" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="3640" yWindow="1120" windowWidth="27600" windowHeight="18800" activeTab="7" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>configuration</t>
   </si>
@@ -106,18 +106,6 @@
   </si>
   <si>
     <t>operator</t>
-  </si>
-  <si>
-    <t>maximum_effect</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>probability_of_success</t>
-  </si>
-  <si>
-    <t>saturation_point</t>
   </si>
   <si>
     <t>weight</t>
@@ -559,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5B01A-C652-9640-91B4-C5BE3F1985FA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -633,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -775,10 +763,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,7 +780,7 @@
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,18 +792,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
